--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1732579.991427452</v>
+        <v>1820913.233328739</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8237317.714532988</v>
+        <v>6663746.095359932</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1928039.641030761</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9991678.587980652</v>
+        <v>10455409.31488889</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9524318238186</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>72.50477145174318</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.05169745074178</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>66.70865780356731</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>59.24433418100834</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.7074114283579092</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -820,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>102.5612108334165</v>
       </c>
       <c r="E4" t="n">
-        <v>15.9124227879787</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.95250482748497</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>234.4053629237957</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2917745500548</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>132.94823985915</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.54796558592821</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>163.1952510194794</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498666</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2675571201491</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>101.8439353995598</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>52.3515173337253</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>33.35392902290853</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>151.6976852162689</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>195.8278546616042</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8705952360366</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0889306021963</v>
+        <v>72.36234216493904</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.62776057957433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>116.7452710687551</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>324.9188781025328</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>121.6949602198257</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>123.9004294058869</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>17.36975161262804</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.6086852141641</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1670,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>56.17172968953166</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>17.15794421524345</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1822,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>69.96969900783374</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>142.6955872305738</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>77.12490849507705</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2256,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>36.00456907591903</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>37.59617708813148</v>
+        <v>6.38006817584717</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>114.2656173771014</v>
+        <v>13.02719212039564</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>57.68750238080732</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>128.6630587450728</v>
       </c>
     </row>
     <row r="32">
@@ -3187,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>84.69473660442753</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928478</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>11.168189153341</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>203.1977700471487</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,7 +3559,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>162.4610835745296</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3718,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>144.7268717888056</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>317.9047269233602</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3758,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.85005436466935</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>167.6506286169306</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>269.2941534682196</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.33640507852645</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>103.1340411809964</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2092.477155601806</v>
+        <v>1410.152256682448</v>
       </c>
       <c r="C2" t="n">
-        <v>2092.477155601806</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="D2" t="n">
-        <v>1734.211456995055</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="E2" t="n">
-        <v>1348.423204396811</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="F2" t="n">
-        <v>937.4372996072036</v>
+        <v>630.2038349524291</v>
       </c>
       <c r="G2" t="n">
-        <v>519.4734915053905</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="H2" t="n">
-        <v>192.2787715413933</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>138.9642385015911</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>397.0764468060711</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>769.5640925927196</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1200.634914689013</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>1978.679112633673</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2243.673398054133</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2292.214167804441</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2292.214167804441</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2072.31060133079</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1818.525626487292</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1818.525626487292</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1800.29158865826</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>1800.29158865826</v>
       </c>
       <c r="Y2" t="n">
-        <v>2092.477155601806</v>
+        <v>1410.152256682448</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>850.791617806416</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>676.338588525289</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>527.4041788640377</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>368.1667238585821</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>130.1591986422598</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>501.7702691852925</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>987.4020823874814</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1501.59413803003</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>1905.563735119902</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2212.78188369591</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2305.608548885991</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2144.554785926782</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>1945.051103087513</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>1716.871275549723</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1481.719167317981</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1227.481810589779</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1226.767253591438</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1019.006954826484</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.01613615165607</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="C4" t="n">
-        <v>70.01613615165607</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="D4" t="n">
-        <v>70.01613615165607</v>
+        <v>511.2418925946026</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>363.3287990122095</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>216.4388515142991</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>88.805294101816</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>197.4326649365663</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>322.3541198950599</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>449.7398382896744</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>551.3848716885932</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951862</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951862</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951862</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="X4" t="n">
-        <v>290.8087152951862</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="Y4" t="n">
-        <v>70.01613615165607</v>
+        <v>614.8390752546193</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1016.6864769223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="C5" t="n">
-        <v>1016.6864769223</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1016.6864769223</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1016.6864769223</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>605.7005721326926</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>188.2341331932433</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>188.2341331932433</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>53.94298182036445</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>410.2019976979187</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>904.4494370133579</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
-        <v>1471.001490010986</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>2032.088949992238</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2139.728110604604</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2515.675364098077</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2673.363267194053</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2508.519579295589</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2508.519579295589</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2508.519579295589</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2177.456691952018</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1824.688036681904</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1451.222278420824</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1061.082946445012</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976.4994133912468</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>802.0463841101198</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>653.1119744488685</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>493.874519443413</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>347.3399614702979</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>209.6959643792383</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>106.8233023594809</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>59.62916516377231</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>356.9932370476781</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>818.2403249881546</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>947.4251295228556</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1568.986666948073</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2071.178363538179</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2457.228406376382</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>2662.594867005198</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2628.904029608321</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2475.674044541383</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2277.868130741783</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2049.716014341746</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1814.563906110003</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1560.326549381801</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1352.475049176269</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1144.714750411315</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.8363188106763</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="C7" t="n">
-        <v>372.8363188106763</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="D7" t="n">
-        <v>222.7196793983406</v>
+        <v>320.605874749703</v>
       </c>
       <c r="E7" t="n">
-        <v>222.7196793983406</v>
+        <v>172.6927811673099</v>
       </c>
       <c r="F7" t="n">
-        <v>222.7196793983406</v>
+        <v>172.6927811673099</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
-        <v>135.6498328580446</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>295.7329061049991</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>474.9071846353183</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>655.2557157182434</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>805.8204789144565</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>911.1339624665389</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>900.3988507699992</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>900.3988507699992</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>782.4743345389334</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>782.4743345389334</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>782.4743345389334</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>782.4743345389334</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4743345389334</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>554.484783640916</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.484783640916</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1267.804920971789</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="C8" t="n">
-        <v>1267.804920971789</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.804920971789</v>
+        <v>1691.754277652948</v>
       </c>
       <c r="E8" t="n">
-        <v>882.0166683735445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.030763583937</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>221.9370458384844</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>625.4041588585299</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>1178.217417104729</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1809.935228088041</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2418.009851272802</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2418.009851272802</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2418.009851272802</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X8" t="n">
-        <v>2044.544093011722</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y8" t="n">
-        <v>1654.40476103591</v>
+        <v>2050.019976259699</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5836898399692</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9452297060877</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.1907323102523</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C10" t="n">
-        <v>519.1907323102523</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D10" t="n">
-        <v>519.1907323102523</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>519.1907323102523</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>519.1907323102523</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>350.5838873056357</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>1036.33245963059</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>1036.33245963059</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>747.1802832082697</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V10" t="n">
-        <v>747.1802832082697</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W10" t="n">
-        <v>747.1802832082697</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X10" t="n">
-        <v>519.1907323102523</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="Y10" t="n">
-        <v>519.1907323102523</v>
+        <v>484.4236418782191</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339056</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077976</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102165</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1944.904841306683</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1575.942324366272</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883007</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>2741.012457539436</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>2388.243802269322</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>2331.504681370805</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2331.504681370805</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>234.2149530574645</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C16" t="n">
-        <v>234.2149530574645</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D16" t="n">
-        <v>234.2149530574645</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E16" t="n">
-        <v>234.2149530574645</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1154.062717966212</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>864.6455479292516</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>636.6559970312343</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.8634178877041</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,52 +5515,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>806.1613418786392</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1670.680157531994</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195857</v>
+        <v>2649.230460361822</v>
       </c>
       <c r="N17" t="n">
-        <v>2762.028521254639</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
         <v>794.200663232024</v>
@@ -5604,28 +5606,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1667.240599230347</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>1667.240599230347</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>1523.103642431788</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y19" t="n">
-        <v>1302.311063288258</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="20">
@@ -5753,43 +5755,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075806</v>
+        <v>3763.957685256235</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5829,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>3576.027882970987</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>3407.09170004308</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>3407.09170004308</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>3329.187752068255</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>3182.297804570345</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>3014.594967945064</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945064</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763409</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210344</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159221</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607717</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207266</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V22" t="n">
-        <v>1667.240599230347</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="W22" t="n">
-        <v>1377.823429193386</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="X22" t="n">
-        <v>1341.455177601548</v>
+        <v>3757.676347801227</v>
       </c>
       <c r="Y22" t="n">
-        <v>1120.662598458018</v>
+        <v>3757.676347801227</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>387.7938597516208</v>
       </c>
       <c r="K23" t="n">
-        <v>1070.832524924162</v>
+        <v>721.6132334414672</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.866738172571</v>
+        <v>1172.647446689876</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844495</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6020,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446538</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917026</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318564</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390123</v>
+        <v>2373.187565809181</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3569.101090636617</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C25" t="n">
-        <v>3400.16490770871</v>
+        <v>102.005547757331</v>
       </c>
       <c r="D25" t="n">
-        <v>3250.048268296374</v>
+        <v>102.005547757331</v>
       </c>
       <c r="E25" t="n">
-        <v>3102.135174713981</v>
+        <v>102.005547757331</v>
       </c>
       <c r="F25" t="n">
-        <v>2955.245227216071</v>
+        <v>102.005547757331</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>4778.051722419721</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>4488.948855545364</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>4488.948855545364</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>4199.531685508404</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X25" t="n">
-        <v>3971.542134610387</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y25" t="n">
-        <v>3750.749555466857</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,25 +6226,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6251,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086363</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419656</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446541</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279159</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086246</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387558</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6406,28 +6408,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V28" t="n">
-        <v>1751.093193329805</v>
+        <v>1943.184686185112</v>
       </c>
       <c r="W28" t="n">
-        <v>1751.093193329805</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.103642431788</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>351.3014367967928</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>685.1208104866391</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1549.639626139994</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3507.942201196469</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6552,13 +6554,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>300.0484256555945</v>
+        <v>3311.601554855313</v>
       </c>
       <c r="C31" t="n">
-        <v>300.0484256555945</v>
+        <v>3311.601554855313</v>
       </c>
       <c r="D31" t="n">
-        <v>300.0484256555945</v>
+        <v>3161.484915442978</v>
       </c>
       <c r="E31" t="n">
-        <v>300.0484256555945</v>
+        <v>3161.484915442978</v>
       </c>
       <c r="F31" t="n">
-        <v>300.0484256555945</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="G31" t="n">
-        <v>300.0484256555945</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="H31" t="n">
-        <v>153.8312388734523</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208122</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838516</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858343</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858343</v>
+        <v>3311.601554855313</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>685.1208104866391</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.639626139994</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3507.942201196469</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075806</v>
+        <v>3944.053400686432</v>
       </c>
       <c r="P32" t="n">
         <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6776,22 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.1112734427657</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C34" t="n">
-        <v>181.1112734427657</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D34" t="n">
-        <v>181.1112734427657</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E34" t="n">
-        <v>181.1112734427657</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F34" t="n">
-        <v>181.1112734427657</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431757</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.6435265574</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.959038351514</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W34" t="n">
-        <v>811.5418683145529</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X34" t="n">
-        <v>583.5523174165355</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y34" t="n">
-        <v>362.7597382730054</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6919,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -7026,16 +7028,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7123,22 +7125,22 @@
         <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104703</v>
+        <v>1945.062466959914</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104703</v>
+        <v>1655.959600085558</v>
       </c>
       <c r="V37" t="n">
-        <v>1751.093193329805</v>
+        <v>1401.275111879671</v>
       </c>
       <c r="W37" t="n">
-        <v>1751.093193329805</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="X37" t="n">
-        <v>1523.103642431788</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1302.311063288258</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7178,19 +7180,19 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3931.363334276588</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4326.137700633766</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7205,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.3166934139181</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C40" t="n">
-        <v>413.3805104860112</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1792.241361483966</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1570.474746053492</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1281.371879179136</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V40" t="n">
-        <v>1281.371879179136</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W40" t="n">
-        <v>991.9547091421751</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X40" t="n">
-        <v>763.9651582441578</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y40" t="n">
-        <v>763.9651582441578</v>
+        <v>245.6776738607302</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1844.338003964587</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>1523.222118183415</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1164.956419576664</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>779.1681669784198</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.5429342656</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>2994.5429342656</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>2621.07717600452</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2230.937844028708</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>917.6163259372726</v>
+        <v>511.9395339702917</v>
       </c>
       <c r="C43" t="n">
-        <v>748.6801430093657</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D43" t="n">
-        <v>598.5635035970299</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E43" t="n">
-        <v>450.6504100146368</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F43" t="n">
-        <v>303.7604625167264</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G43" t="n">
-        <v>136.0576258914454</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H43" t="n">
-        <v>136.0576258914454</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.46409084602</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1837.46409084602</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1837.46409084602</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V43" t="n">
-        <v>1837.46409084602</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W43" t="n">
-        <v>1548.04692080906</v>
+        <v>739.929084868309</v>
       </c>
       <c r="X43" t="n">
-        <v>1320.057369911042</v>
+        <v>511.9395339702917</v>
       </c>
       <c r="Y43" t="n">
-        <v>1099.264790767512</v>
+        <v>511.9395339702917</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2303.170539913434</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>1934.208022973022</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.942324366272</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410101</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>2961.784676410101</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>2961.784676410101</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>2961.784676410101</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2689.770379977556</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158142</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.7622949738568</v>
+        <v>368.673016549025</v>
       </c>
       <c r="C46" t="n">
-        <v>583.8261120459499</v>
+        <v>199.7368336211181</v>
       </c>
       <c r="D46" t="n">
-        <v>433.7094726336142</v>
+        <v>199.7368336211181</v>
       </c>
       <c r="E46" t="n">
-        <v>285.796379051221</v>
+        <v>199.7368336211181</v>
       </c>
       <c r="F46" t="n">
-        <v>285.796379051221</v>
+        <v>199.7368336211181</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>199.7368336211181</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088492</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088492</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.610059882605</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W46" t="n">
-        <v>1383.192889845644</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="X46" t="n">
-        <v>1155.203338947627</v>
+        <v>771.1140605227948</v>
       </c>
       <c r="Y46" t="n">
-        <v>934.4107598040965</v>
+        <v>550.3214813792647</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>64.58008902262989</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>115.1204337631322</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.36793656920747</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8228,13 +8230,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>188.4511078479749</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>30.92661775112423</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>148.2422363886229</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8462,16 +8464,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>176.8008973295431</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8705,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>189.7998007892656</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>219.3344627260163</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704411</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>315.1679217109336</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>104.3976710547485</v>
       </c>
       <c r="K23" t="n">
-        <v>288.047814956104</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>67.53663776704411</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>67.53663776704337</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10124,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>67.53663776704337</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10364,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>67.53663776704474</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>80.35488666587625</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>344.7025836476849</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>181.1251564493165</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>313.5593709889374</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>150.0888768833844</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>182.1679443159942</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>83.01406815846337</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>69.30905415149212</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>189.7050863131181</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>128.4296311708968</v>
+        <v>159.6457400831811</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24415,13 +24417,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24658,10 +24660,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>137.8720259467266</v>
+        <v>239.1104512034324</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>38.6649180290308</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>89.92159460702197</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>81.33107165460069</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>69.12041821276512</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>208.3807601228282</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>48.93987327667932</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>27.30794175691227</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>73.85778156328922</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>47.36816484764734</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>27.50236604516877</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>118.8723697196604</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>116.943785187834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>93.68940318050177</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>41.62097373332439</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>962341.0884218209</v>
+        <v>961468.9422946882</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>948039.447272228</v>
+        <v>962341.0884218209</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>937151.3193827335</v>
+        <v>962341.0884218209</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738633.2584725906</v>
+        <v>884965.8829081317</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738633.2584725907</v>
+        <v>884965.8829081316</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>884965.8829081317</v>
+        <v>884965.8829081316</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>884965.8829081317</v>
+        <v>884965.8829081316</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>884965.8829081317</v>
+        <v>884965.8829081316</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>884965.8829081316</v>
+        <v>884965.8829081317</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738633.2584725906</v>
+        <v>884965.8829081316</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738633.2584725906</v>
+        <v>884965.8829081316</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>460346.0836107428</v>
+        <v>536060.4122974274</v>
       </c>
       <c r="F2" t="n">
-        <v>460346.0836107429</v>
+        <v>536060.4122974278</v>
       </c>
       <c r="G2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="H2" t="n">
         <v>536060.4122974273</v>
       </c>
       <c r="I2" t="n">
+        <v>536060.4122974274</v>
+      </c>
+      <c r="J2" t="n">
         <v>536060.4122974275</v>
       </c>
-      <c r="J2" t="n">
-        <v>536060.4122974272</v>
-      </c>
       <c r="K2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="L2" t="n">
         <v>536060.4122974275</v>
       </c>
       <c r="M2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974274</v>
       </c>
       <c r="N2" t="n">
-        <v>536060.4122974272</v>
+        <v>536060.4122974274</v>
       </c>
       <c r="O2" t="n">
-        <v>460346.0836107426</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="P2" t="n">
-        <v>460346.0836107428</v>
+        <v>536060.4122974275</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>493391.6844106477</v>
       </c>
       <c r="C3" t="n">
-        <v>111533.6047361811</v>
+        <v>91792.6395744695</v>
       </c>
       <c r="D3" t="n">
-        <v>79859.80284683735</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>445640.229573451</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091494</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21342.09858220087</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254666</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>244465.9635861106</v>
+      </c>
+      <c r="C4" t="n">
         <v>218780.3249983351</v>
       </c>
-      <c r="C4" t="n">
-        <v>198082.5728655403</v>
-      </c>
       <c r="D4" t="n">
-        <v>182326.0222100159</v>
+        <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>6110.739312017629</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="F4" t="n">
-        <v>6110.739312017629</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079773</v>
       </c>
       <c r="H4" t="n">
         <v>32032.95503079772</v>
@@ -26439,25 +26441,25 @@
         <v>32032.9550307977</v>
       </c>
       <c r="J4" t="n">
+        <v>32032.95503079772</v>
+      </c>
+      <c r="K4" t="n">
         <v>32032.95503079773</v>
       </c>
-      <c r="K4" t="n">
-        <v>32032.9550307977</v>
-      </c>
       <c r="L4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079773</v>
       </c>
       <c r="M4" t="n">
+        <v>32032.95503079773</v>
+      </c>
+      <c r="N4" t="n">
         <v>32032.95503079772</v>
       </c>
-      <c r="N4" t="n">
-        <v>32032.95503079773</v>
-      </c>
       <c r="O4" t="n">
-        <v>6110.739312017629</v>
+        <v>32032.95503079771</v>
       </c>
       <c r="P4" t="n">
-        <v>6110.739312017629</v>
+        <v>32032.95503079772</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>76261.1061314012</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="C5" t="n">
-        <v>85529.21560236583</v>
-      </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26497,7 +26499,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26506,10 +26508,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-337404.0876178974</v>
+        <v>-259915.5594697679</v>
       </c>
       <c r="C6" t="n">
-        <v>159057.8014543037</v>
+        <v>160771.1520221769</v>
       </c>
       <c r="D6" t="n">
-        <v>204455.3244306914</v>
+        <v>252563.7915966466</v>
       </c>
       <c r="E6" t="n">
-        <v>-65711.22583611909</v>
+        <v>-319733.4749804906</v>
       </c>
       <c r="F6" t="n">
-        <v>379929.003737332</v>
+        <v>407643.9390129164</v>
       </c>
       <c r="G6" t="n">
-        <v>308120.530332001</v>
+        <v>407643.9390129164</v>
       </c>
       <c r="H6" t="n">
         <v>407643.9390129159</v>
       </c>
       <c r="I6" t="n">
+        <v>407643.9390129161</v>
+      </c>
+      <c r="J6" t="n">
+        <v>252917.4033297004</v>
+      </c>
+      <c r="K6" t="n">
+        <v>386301.8404307154</v>
+      </c>
+      <c r="L6" t="n">
+        <v>407643.9390129161</v>
+      </c>
+      <c r="M6" t="n">
+        <v>278001.6241739714</v>
+      </c>
+      <c r="N6" t="n">
+        <v>407643.9390129161</v>
+      </c>
+      <c r="O6" t="n">
+        <v>407643.9390129163</v>
+      </c>
+      <c r="P6" t="n">
         <v>407643.9390129162</v>
-      </c>
-      <c r="J6" t="n">
-        <v>231220.7198203229</v>
-      </c>
-      <c r="K6" t="n">
-        <v>407643.9390129161</v>
-      </c>
-      <c r="L6" t="n">
-        <v>407643.9390129162</v>
-      </c>
-      <c r="M6" t="n">
-        <v>368490.4562403694</v>
-      </c>
-      <c r="N6" t="n">
-        <v>407643.9390129158</v>
-      </c>
-      <c r="O6" t="n">
-        <v>379929.0037373317</v>
-      </c>
-      <c r="P6" t="n">
-        <v>379929.003737332</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>306.3599178435495</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>500.227037563709</v>
-      </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26826,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>1194.51293060493</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
-        <v>122.4833733466224</v>
+        <v>71.38374637353726</v>
       </c>
       <c r="D3" t="n">
-        <v>93.24906277435603</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>496.300600255233</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.114182647737</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026376</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.114182647737</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.114182647737</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026376</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>14.97888442104266</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>331.1892712666713</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27521,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.0655737751196</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>46.05426218479589</v>
       </c>
       <c r="E4" t="n">
-        <v>130.5215398585905</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>54.3008017384878</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>39.90169565731842</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.7813368359956</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>130.8675288472118</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>318.8800276496392</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>214.2928591844926</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1847758706301</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.94746009411188</v>
       </c>
       <c r="H7" t="n">
-        <v>154.2071390199427</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>128.3234086934755</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>29.58433304891926</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>136.7339991183153</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>91.55107727953465</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0913811060693</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2698266970584</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>57.01149196972898</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>129.459826002475</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>55.93155077605036</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>187.9961302874906</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.217746946403958e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28992,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.23159765967256</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>12.61309953212161</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>47.4811687745264</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>104.530311867634</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>156.6638408015735</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>194.3553476787776</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>216.2577725589795</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>219.7570494095242</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>207.5103501811552</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>177.1052829579888</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>132.9986917709652</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>77.3643464894065</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>28.06503166978848</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>5.391318755216632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.09852781277380475</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.6589628421540498</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>6.364193765014114</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>22.68797504784777</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>62.25753764403679</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>106.4080480683581</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>143.0787521966502</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>166.9661552247344</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>171.3852525302325</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>156.7840232382927</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>125.8330009723817</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>84.11602876338362</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>40.91349997163479</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>12.23994577422105</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>2.656082683945489</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.04335281856276645</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.552452310865417</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>4.911803272967075</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>16.61374767584364</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>39.05837837818498</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>64.18491393509116</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>82.13459174448209</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>86.59941087502168</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>84.54027044361428</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>78.08662299395915</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>66.81659585230459</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>46.26034759437596</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>24.8402648140032</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>9.627737090263672</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.360478055515872</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03013376241084096</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.010962965080236</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>20.59477446612797</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>77.52764971125586</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>170.6779679574788</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>255.8020302693252</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>317.3450381118996</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>353.1075007421452</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>358.8211492666795</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>338.8246362826628</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>289.1789880822445</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>217.1613768953085</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>126.3211523552215</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>45.82481856676592</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>8.802990379638736</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1608770372064188</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.075960043061563</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>10.39150883693667</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>37.04511551768978</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>101.6546284543383</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>173.743951339463</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>233.6201839112398</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>272.6237354722214</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>279.8392745329281</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9982651577219</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>205.4611769947997</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>137.3453556722093</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>66.8039051297346</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>19.98548588756893</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>4.336874033217438</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07078684493826073</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.902048756262426</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>8.020033487496848</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>27.12706623378278</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>63.77484706775351</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>104.8016645912164</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>134.1100487265065</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>141.4002427657546</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>138.0380610378675</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>127.5004914760746</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>109.098696848321</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>75.53428267212006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>40.55939225885416</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>15.72024968868245</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>3.854208322212183</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04920265943249602</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32093,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32551,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32561,7 +32563,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970249</v>
@@ -32786,7 +32788,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33032,7 +33034,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33272,7 +33274,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33512,7 +33514,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002926</v>
@@ -33746,7 +33748,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34438,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138809</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34475,7 +34477,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34524,16 +34526,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34542,19 +34544,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>92.58102251302149</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>260.7194023277577</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>376.2501472592409</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>435.4250728245393</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>427.6909102249174</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>358.2123200222138</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>267.6709953742019</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>123.0079925564204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>83.68704285713129</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>375.3647177202351</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>490.537185052716</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>519.3859147904527</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>408.0500980705778</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>310.3213621979886</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>154.2115424132112</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>41.91542210920831</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>109.7246170047982</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>128.6724428228429</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>102.6717509079988</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>64.09515511719808</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>359.8575917955094</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>499.2398376923628</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>572.2748010077049</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>566.7550100820727</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>108.7264248609761</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>379.7447004984576</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.3067948688339</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5.74361953879582</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>300.3677493776826</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L6" t="n">
-        <v>465.9061494348248</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>130.4897015502031</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>627.8399367931484</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>507.264339990007</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>389.9495382204066</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>207.4408693220369</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>82.53217276533353</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>161.7000739868227</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>180.9841197275952</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>182.1702334170961</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>152.0856193901143</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>106.3772561132145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.6909737556767</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>245.091624262227</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,16 +35652,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35668,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>526.991087344666</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>727.3874636142355</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552631</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>713.9299079303053</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36209,7 +36211,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525805</v>
@@ -36288,7 +36290,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675435</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>295.184672023461</v>
       </c>
       <c r="K23" t="n">
-        <v>625.2391015115044</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>575.5896386552631</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36680,7 +36682,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>258.3236387357559</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36844,7 +36846,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36853,7 +36855,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>404.7279243224438</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427824</v>
@@ -37084,7 +37086,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>466.2986239864164</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037194</v>
@@ -37148,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37160,7 +37162,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
@@ -37394,7 +37396,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37546,7 +37548,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37555,13 +37557,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>331.1491914695957</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
@@ -37789,19 +37791,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>897.0044190605962</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340067</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1820913.233328739</v>
+        <v>1815173.118620523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359932</v>
+        <v>6663746.095359935</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>184.7288528027688</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174318</v>
+        <v>72.50477145174312</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.05169745074178</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>15.81610553622658</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356731</v>
+        <v>66.70865780356729</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100834</v>
+        <v>59.24433418100831</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7074114283579092</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>102.5612108334165</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>121.8807762310365</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>234.4053629237957</v>
+        <v>211.0025011558363</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498666</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>72.36234216493904</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>145.4249611444373</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>324.9188781025328</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>110.1458031968981</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.9004294058869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>90.41948680756546</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>17.15794421524345</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>36.67752576955544</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>77.12490849507705</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>107.9221621584908</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>6.38006817584717</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>85.65576091831556</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>42.32069823344306</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>13.02719212039564</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>165.8124928026225</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.6630587450728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>217.0914199928478</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>158.8497927386386</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>11.168189153341</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>19.36824379237553</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>20.84901245549815</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.7268717888056</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>167.6506286169306</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>36.41670903610036</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>103.1340411809964</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1410.152256682448</v>
+        <v>1536.759079478397</v>
       </c>
       <c r="C2" t="n">
-        <v>1041.189739742037</v>
+        <v>1167.796562537985</v>
       </c>
       <c r="D2" t="n">
-        <v>1041.189739742037</v>
+        <v>809.530863931235</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.189739742037</v>
+        <v>809.530863931235</v>
       </c>
       <c r="F2" t="n">
-        <v>630.2038349524291</v>
+        <v>398.5449591416274</v>
       </c>
       <c r="G2" t="n">
         <v>211.9501583307498</v>
@@ -4327,55 +4327,55 @@
         <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015912</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060711</v>
+        <v>397.0764468060714</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927196</v>
+        <v>769.56409259272</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689013</v>
+        <v>1200.634914689014</v>
       </c>
       <c r="N2" t="n">
         <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633673</v>
+        <v>1978.679112633674</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054133</v>
+        <v>2243.673398054134</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804441</v>
+        <v>2292.214167804442</v>
       </c>
       <c r="S2" t="n">
-        <v>2292.214167804441</v>
+        <v>2109.431301222162</v>
       </c>
       <c r="T2" t="n">
-        <v>2072.31060133079</v>
+        <v>1889.527734748511</v>
       </c>
       <c r="U2" t="n">
-        <v>1818.525626487292</v>
+        <v>1889.527734748511</v>
       </c>
       <c r="V2" t="n">
-        <v>1818.525626487292</v>
+        <v>1889.527734748511</v>
       </c>
       <c r="W2" t="n">
-        <v>1800.29158865826</v>
+        <v>1536.759079478397</v>
       </c>
       <c r="X2" t="n">
-        <v>1800.29158865826</v>
+        <v>1536.759079478397</v>
       </c>
       <c r="Y2" t="n">
-        <v>1410.152256682448</v>
+        <v>1536.759079478397</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>850.791617806416</v>
+        <v>897.8920313274268</v>
       </c>
       <c r="C3" t="n">
-        <v>676.338588525289</v>
+        <v>723.4390020462998</v>
       </c>
       <c r="D3" t="n">
-        <v>527.4041788640377</v>
+        <v>574.5045923850486</v>
       </c>
       <c r="E3" t="n">
-        <v>368.1667238585821</v>
+        <v>415.2671373795931</v>
       </c>
       <c r="F3" t="n">
-        <v>221.6321658854671</v>
+        <v>268.7325794064781</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>130.6673730215724</v>
       </c>
       <c r="H3" t="n">
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422598</v>
+        <v>278.0105538592118</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852925</v>
+        <v>649.6216244022447</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874814</v>
+        <v>1135.253437604434</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.59413803003</v>
+        <v>1649.445493246982</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119902</v>
+        <v>2053.415090336854</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.78188369591</v>
+        <v>2212.781883695911</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885991</v>
+        <v>2305.608548885992</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926782</v>
+        <v>2144.554785926783</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087513</v>
+        <v>1945.051103087514</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549723</v>
+        <v>1716.871275549724</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317981</v>
+        <v>1481.719167317982</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589779</v>
+        <v>1481.719167317982</v>
       </c>
       <c r="X3" t="n">
-        <v>1226.767253591438</v>
+        <v>1273.867667112449</v>
       </c>
       <c r="Y3" t="n">
-        <v>1019.006954826484</v>
+        <v>1066.107368347495</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.8390752546193</v>
+        <v>170.420921396565</v>
       </c>
       <c r="C4" t="n">
-        <v>614.8390752546193</v>
+        <v>170.420921396565</v>
       </c>
       <c r="D4" t="n">
-        <v>511.2418925946026</v>
+        <v>170.420921396565</v>
       </c>
       <c r="E4" t="n">
-        <v>363.3287990122095</v>
+        <v>170.420921396565</v>
       </c>
       <c r="F4" t="n">
-        <v>216.4388515142991</v>
+        <v>170.420921396565</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369979</v>
+        <v>170.420921396565</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="K4" t="n">
-        <v>88.805294101816</v>
+        <v>88.80529410181607</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365663</v>
+        <v>197.4326649365664</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950599</v>
+        <v>322.3541198950601</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896744</v>
+        <v>449.7398382896746</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885932</v>
+        <v>551.3848716885935</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546193</v>
+        <v>398.2846702579444</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546193</v>
+        <v>170.420921396565</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546193</v>
+        <v>170.420921396565</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546193</v>
+        <v>170.420921396565</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546193</v>
+        <v>170.420921396565</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546193</v>
+        <v>170.420921396565</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546193</v>
+        <v>170.420921396565</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2344.380435748108</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>2344.380435748108</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4643,52 +4643,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.7225141620388</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>470.7225141620388</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>320.605874749703</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E7" t="n">
-        <v>172.6927811673099</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F7" t="n">
-        <v>172.6927811673099</v>
+        <v>551.8221175621458</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>382.8223173004782</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4767,10 +4767,10 @@
         <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.7225141620388</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2050.019976259699</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>2050.019976259699</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>1691.754277652948</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259699</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>2050.019976259699</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4889,25 +4889,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5035,7 +5035,7 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5044,16 +5044,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>333.7837969034416</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>186.8938494055313</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>186.8938494055313</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="14">
@@ -5257,43 +5257,43 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.2179684131233</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C16" t="n">
-        <v>192.8867116300491</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D16" t="n">
-        <v>192.8867116300491</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1505.842960673222</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1251.158472467335</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="Y16" t="n">
-        <v>391.866433243363</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>806.1613418786392</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1670.680157531994</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2649.230460361822</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,28 +5594,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433621</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998319</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867998</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>2883.99303492678</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3763.957685256235</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3576.027882970987</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C22" t="n">
-        <v>3407.09170004308</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D22" t="n">
-        <v>3407.09170004308</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E22" t="n">
-        <v>3329.187752068255</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>3182.297804570345</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3014.594967945064</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945064</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763409</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210344</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159221</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607717</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207266</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699244</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V22" t="n">
-        <v>3985.665898699244</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W22" t="n">
-        <v>3985.665898699244</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="X22" t="n">
-        <v>3757.676347801227</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y22" t="n">
-        <v>3757.676347801227</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="23">
@@ -5983,31 +5983,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>387.7938597516208</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>721.6132334414672</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1172.647446689876</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>270.9417306852379</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C25" t="n">
-        <v>102.005547757331</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>102.005547757331</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>102.005547757331</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>102.005547757331</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,22 +6162,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
         <v>1445.473983799873</v>
@@ -6186,13 +6186,13 @@
         <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570251</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590077</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5901955154776</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6235,43 +6235,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,13 +6305,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1023.336921276364</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="C28" t="n">
-        <v>854.4007383484569</v>
+        <v>138.3092144821753</v>
       </c>
       <c r="D28" t="n">
-        <v>704.2840989361212</v>
+        <v>138.3092144821753</v>
       </c>
       <c r="E28" t="n">
-        <v>556.371005353728</v>
+        <v>138.3092144821753</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>138.3092144821753</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104703</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1943.184686185112</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1653.767516148151</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1425.777965250134</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.985386106604</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6472,13 +6472,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3311.601554855313</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>3311.601554855313</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>3161.484915442978</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>3161.484915442978</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.768765573601</v>
+        <v>1507.339758221763</v>
       </c>
       <c r="U31" t="n">
-        <v>3985.665898699244</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V31" t="n">
-        <v>3730.981410493358</v>
+        <v>963.5524031415191</v>
       </c>
       <c r="W31" t="n">
-        <v>3441.564240456397</v>
+        <v>674.1352331045584</v>
       </c>
       <c r="X31" t="n">
-        <v>3441.564240456397</v>
+        <v>446.1456822065411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3311.601554855313</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O32" t="n">
-        <v>3944.053400686432</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604875</v>
@@ -6770,22 +6770,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.5269503710301</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C34" t="n">
-        <v>393.5907674431232</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D34" t="n">
-        <v>243.4741280307875</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U34" t="n">
-        <v>1737.059203485665</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V34" t="n">
-        <v>1482.374715279778</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="W34" t="n">
-        <v>1192.957545242817</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="X34" t="n">
-        <v>964.9679943448</v>
+        <v>1376.213694933878</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.1754152012699</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
     <row r="35">
@@ -6931,31 +6931,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2584.171204687568</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,28 +7016,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.4168978689405</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C37" t="n">
         <v>540.4807149410336</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1945.062466959914</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1655.959600085558</v>
+        <v>1715.012968055669</v>
       </c>
       <c r="V37" t="n">
-        <v>1401.275111879671</v>
+        <v>1460.328479849782</v>
       </c>
       <c r="W37" t="n">
-        <v>1111.85794184271</v>
+        <v>1170.911309812821</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.85794184271</v>
+        <v>942.9217589148035</v>
       </c>
       <c r="Y37" t="n">
-        <v>891.0653626991802</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7174,25 +7174,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2504.619866888351</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3931.363334276588</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4326.137700633766</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,28 +7253,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.6776738607302</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C40" t="n">
-        <v>245.6776738607302</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258583</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384227</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V40" t="n">
-        <v>909.27315417834</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413794</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X40" t="n">
-        <v>391.8664332433621</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y40" t="n">
-        <v>245.6776738607302</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7438,10 +7438,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,25 +7490,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.9395339702917</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>343.0033510423848</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>739.929084868309</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>511.9395339702917</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>511.9395339702917</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7727,22 +7727,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>368.673016549025</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C46" t="n">
-        <v>199.7368336211181</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D46" t="n">
-        <v>199.7368336211181</v>
+        <v>300.048425655595</v>
       </c>
       <c r="E46" t="n">
-        <v>199.7368336211181</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>199.7368336211181</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>199.7368336211181</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7809,7 +7809,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,19 +7821,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
         <v>1542.890966501056</v>
@@ -7842,16 +7842,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>999.1036114208122</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>771.1140605227948</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>550.3214813792647</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262989</v>
+        <v>64.58008902262986</v>
       </c>
       <c r="K3" t="n">
-        <v>115.1204337631322</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>169.1179653904912</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>146.0713065388583</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>189.7998007892656</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>315.1679217109336</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>104.3976710547485</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>67.53663776704411</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>64.28566532692525</v>
       </c>
       <c r="P32" t="n">
-        <v>67.53663776704474</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10591,22 +10591,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>80.35488666587514</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.35488666587625</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>344.7025836476849</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>54.33552810675532</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>150.0888768833844</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>249.5343124360574</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>52.51544363394669</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>69.30905415149212</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>117.7874932305464</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>159.6457400831811</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>140.0538944707216</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>123.7051100255852</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>239.1104512034324</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>53.73645647354667</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.92159460702197</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>69.12041821276512</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>93.28785058518943</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>208.3807601228282</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>266.8435944132373</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>231.2886308683298</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.85778156328922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>118.8723697196604</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0172536104688</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>41.62097373332439</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>884965.8829081317</v>
+        <v>884965.8829081316</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>884965.8829081316</v>
+        <v>884965.8829081315</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>884965.8829081317</v>
+        <v>884965.8829081316</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>884965.8829081316</v>
+        <v>884965.8829081315</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>884965.8829081316</v>
+        <v>884965.8829081317</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>884965.8829081317</v>
+        <v>884965.8829081316</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="F2" t="n">
+        <v>536060.4122974275</v>
+      </c>
+      <c r="G2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="H2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="I2" t="n">
+        <v>536060.4122974272</v>
+      </c>
+      <c r="J2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="K2" t="n">
+        <v>536060.4122974275</v>
+      </c>
+      <c r="L2" t="n">
         <v>536060.4122974274</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="N2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="O2" t="n">
+        <v>536060.4122974274</v>
+      </c>
+      <c r="P2" t="n">
         <v>536060.4122974278</v>
-      </c>
-      <c r="G2" t="n">
-        <v>536060.4122974275</v>
-      </c>
-      <c r="H2" t="n">
-        <v>536060.4122974273</v>
-      </c>
-      <c r="I2" t="n">
-        <v>536060.4122974274</v>
-      </c>
-      <c r="J2" t="n">
-        <v>536060.4122974275</v>
-      </c>
-      <c r="K2" t="n">
-        <v>536060.4122974277</v>
-      </c>
-      <c r="L2" t="n">
-        <v>536060.4122974275</v>
-      </c>
-      <c r="M2" t="n">
-        <v>536060.4122974274</v>
-      </c>
-      <c r="N2" t="n">
-        <v>536060.4122974274</v>
-      </c>
-      <c r="O2" t="n">
-        <v>536060.4122974277</v>
-      </c>
-      <c r="P2" t="n">
-        <v>536060.4122974275</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106477</v>
+        <v>493391.684410648</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.6395744695</v>
+        <v>91792.6395744691</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220087</v>
+        <v>21342.09858220081</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861106</v>
+        <v>244465.9635861104</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
@@ -26432,34 +26432,34 @@
         <v>32032.9550307977</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.95503079773</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="I4" t="n">
+        <v>32032.95503079769</v>
+      </c>
+      <c r="J4" t="n">
         <v>32032.9550307977</v>
       </c>
-      <c r="J4" t="n">
-        <v>32032.95503079772</v>
-      </c>
       <c r="K4" t="n">
-        <v>32032.95503079773</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079773</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="M4" t="n">
-        <v>32032.95503079773</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="N4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="O4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="P4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079769</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.1061314012</v>
+        <v>76261.10613140123</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26484,34 +26484,34 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-259915.5594697679</v>
+        <v>-259915.5594697683</v>
       </c>
       <c r="C6" t="n">
-        <v>160771.1520221769</v>
+        <v>160771.1520221775</v>
       </c>
       <c r="D6" t="n">
         <v>252563.7915966466</v>
       </c>
       <c r="E6" t="n">
-        <v>-319733.4749804906</v>
+        <v>-320405.4298827483</v>
       </c>
       <c r="F6" t="n">
-        <v>407643.9390129164</v>
+        <v>406971.9841106582</v>
       </c>
       <c r="G6" t="n">
-        <v>407643.9390129164</v>
+        <v>406971.9841106583</v>
       </c>
       <c r="H6" t="n">
-        <v>407643.9390129159</v>
+        <v>406971.9841106585</v>
       </c>
       <c r="I6" t="n">
-        <v>407643.9390129161</v>
+        <v>406971.9841106579</v>
       </c>
       <c r="J6" t="n">
-        <v>252917.4033297004</v>
+        <v>252245.4484274425</v>
       </c>
       <c r="K6" t="n">
-        <v>386301.8404307154</v>
+        <v>385629.8855284574</v>
       </c>
       <c r="L6" t="n">
-        <v>407643.9390129161</v>
+        <v>406971.9841106581</v>
       </c>
       <c r="M6" t="n">
-        <v>278001.6241739714</v>
+        <v>277329.6692717132</v>
       </c>
       <c r="N6" t="n">
-        <v>407643.9390129161</v>
+        <v>406971.984110658</v>
       </c>
       <c r="O6" t="n">
-        <v>407643.9390129163</v>
+        <v>406971.9841106581</v>
       </c>
       <c r="P6" t="n">
-        <v>407643.9390129162</v>
+        <v>406971.9841106585</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435497</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435497</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353726</v>
+        <v>71.38374637353691</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.924445083308</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.924445083308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.924445083308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>229.3422870526936</v>
       </c>
       <c r="H2" t="n">
         <v>326.8617025836455</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>331.1892712666713</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>90.05514493525577</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27520,10 +27520,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.0655737751196</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>46.05426218479589</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3153692344725</v>
+        <v>35.43459300343598</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.3008017384878</v>
+        <v>54.30080173848777</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731842</v>
+        <v>39.90169565731838</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5851113727656</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.28889559408</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>130.8675288472118</v>
+        <v>154.2703906151712</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.94746009411188</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>10.74592769735781</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>57.01149196972898</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>303.6383668238969</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.93155077605036</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.217746946403958e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28994,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967256</v>
+        <v>1.231597659672561</v>
       </c>
       <c r="H2" t="n">
         <v>12.61309953212161</v>
       </c>
       <c r="I2" t="n">
-        <v>47.4811687745264</v>
+        <v>47.48116877452644</v>
       </c>
       <c r="J2" t="n">
-        <v>104.530311867634</v>
+        <v>104.5303118676341</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015735</v>
+        <v>156.6638408015736</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787776</v>
+        <v>194.3553476787778</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589795</v>
+        <v>216.2577725589797</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095242</v>
+        <v>219.7570494095243</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811552</v>
+        <v>207.5103501811553</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579888</v>
+        <v>177.1052829579889</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709652</v>
+        <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>77.3643464894065</v>
+        <v>77.36434648940656</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978848</v>
+        <v>28.0650316697885</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216632</v>
+        <v>5.391318755216637</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380475</v>
+        <v>0.09852781277380483</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540498</v>
+        <v>0.6589628421540503</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014114</v>
+        <v>6.364193765014118</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784777</v>
+        <v>22.68797504784779</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403679</v>
+        <v>62.25753764403684</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683581</v>
+        <v>106.4080480683582</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966502</v>
+        <v>143.0787521966503</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247344</v>
+        <v>166.9661552247346</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302325</v>
+        <v>171.3852525302326</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382927</v>
+        <v>156.7840232382928</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723817</v>
+        <v>125.8330009723818</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338362</v>
+        <v>84.11602876338368</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163479</v>
+        <v>40.91349997163482</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422105</v>
+        <v>12.23994577422106</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945489</v>
+        <v>2.656082683945491</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276645</v>
+        <v>0.04335281856276648</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.552452310865417</v>
+        <v>0.5524523108654174</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967075</v>
+        <v>4.911803272967078</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584364</v>
+        <v>16.61374767584365</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818498</v>
+        <v>39.058378378185</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509116</v>
+        <v>64.1849139350912</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448209</v>
+        <v>82.13459174448217</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502168</v>
+        <v>86.59941087502173</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361428</v>
+        <v>84.54027044361435</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395915</v>
+        <v>78.08662299395921</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230459</v>
+        <v>66.81659585230464</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437596</v>
+        <v>46.260347594376</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140032</v>
+        <v>24.84026481400322</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263672</v>
+        <v>9.627737090263679</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515872</v>
+        <v>2.360478055515874</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084096</v>
+        <v>0.03013376241084098</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32095,10 +32095,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302149</v>
+        <v>92.58102251302157</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277577</v>
+        <v>260.7194023277578</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592409</v>
+        <v>376.250147259241</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245393</v>
+        <v>435.4250728245394</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249174</v>
+        <v>427.6909102249176</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222138</v>
+        <v>358.2123200222139</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742019</v>
+        <v>267.6709953742021</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564204</v>
+        <v>123.0079925564205</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.68704285713129</v>
+        <v>233.0318461065778</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202351</v>
+        <v>375.3647177202353</v>
       </c>
       <c r="M3" t="n">
-        <v>490.537185052716</v>
+        <v>490.5371850527162</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904527</v>
+        <v>519.3859147904528</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705778</v>
+        <v>408.0500980705779</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979886</v>
+        <v>160.9765589485427</v>
       </c>
       <c r="Q3" t="n">
         <v>154.2115424132112</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920831</v>
+        <v>41.91542210920835</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047982</v>
+        <v>109.7246170047983</v>
       </c>
       <c r="M4" t="n">
         <v>126.1832878368623</v>
@@ -34871,10 +34871,10 @@
         <v>128.6724428228429</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079988</v>
+        <v>102.6717509079989</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719808</v>
+        <v>64.09515511719813</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>544.8332927582302</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35743,10 +35743,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>526.991087344666</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>713.9299079303053</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36290,16 +36290,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675435</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>295.184672023461</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>575.5896386552631</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>572.3386662151444</v>
       </c>
       <c r="P32" t="n">
-        <v>466.2986239864164</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>619.2760024961019</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.1491914695957</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>897.0044190605962</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1815173.118620523</v>
+        <v>1818578.609744972</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.88270951</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>184.7288528027688</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>100.4749385758602</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174312</v>
+        <v>72.50477145174318</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164568</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15.81610553622658</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356729</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100831</v>
+        <v>26.75866868093842</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>121.3842648627975</v>
       </c>
       <c r="H4" t="n">
-        <v>121.8807762310365</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5851113727656</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>211.0025011558363</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>252.6056551265399</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -992,7 +992,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>145.4249611444373</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>110.1458031968981</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>82.5995718321566</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>90.41948680756546</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>59.12368734836478</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>21.82802799868911</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>36.67752576955544</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>113.5103646250815</v>
+        <v>76.58507442972635</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.300256016831</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>107.9221621584908</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>7.601081015447153</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>85.65576091831556</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>42.32069823344306</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471487</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>165.8124928026225</v>
+        <v>138.3082700859015</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>158.8497927386386</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>19.48923120238878</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>19.36824379237553</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>20.84901245549815</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>114.4746605491556</v>
+        <v>71.98153210089467</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>36.41670903610036</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>113.9059869644533</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1536.759079478397</v>
+        <v>1282.974104634898</v>
       </c>
       <c r="C2" t="n">
-        <v>1167.796562537985</v>
+        <v>914.0115876944865</v>
       </c>
       <c r="D2" t="n">
-        <v>809.530863931235</v>
+        <v>555.745889087736</v>
       </c>
       <c r="E2" t="n">
-        <v>809.530863931235</v>
+        <v>169.9576364894918</v>
       </c>
       <c r="F2" t="n">
-        <v>398.5449591416274</v>
+        <v>163.0121357402883</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307498</v>
+        <v>148.7988631590131</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>148.7988631590131</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369981</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015912</v>
+        <v>138.9642385015911</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060714</v>
+        <v>397.0764468060711</v>
       </c>
       <c r="L2" t="n">
-        <v>769.56409259272</v>
+        <v>769.5640925927195</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1200.634914689013</v>
       </c>
       <c r="N2" t="n">
         <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633674</v>
+        <v>1978.679112633673</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054134</v>
+        <v>2243.673398054133</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.45131068499</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804442</v>
+        <v>2292.214167804441</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222162</v>
+        <v>2109.431301222161</v>
       </c>
       <c r="T2" t="n">
-        <v>1889.527734748511</v>
+        <v>1889.52773474851</v>
       </c>
       <c r="U2" t="n">
-        <v>1889.527734748511</v>
+        <v>1635.742759905012</v>
       </c>
       <c r="V2" t="n">
-        <v>1889.527734748511</v>
+        <v>1635.742759905012</v>
       </c>
       <c r="W2" t="n">
-        <v>1536.759079478397</v>
+        <v>1282.974104634898</v>
       </c>
       <c r="X2" t="n">
-        <v>1536.759079478397</v>
+        <v>1282.974104634898</v>
       </c>
       <c r="Y2" t="n">
-        <v>1536.759079478397</v>
+        <v>1282.974104634898</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>897.8920313274268</v>
+        <v>676.4684781346485</v>
       </c>
       <c r="C3" t="n">
-        <v>723.4390020462998</v>
+        <v>502.0154488535215</v>
       </c>
       <c r="D3" t="n">
-        <v>574.5045923850486</v>
+        <v>353.0810391922703</v>
       </c>
       <c r="E3" t="n">
-        <v>415.2671373795931</v>
+        <v>193.8435841868148</v>
       </c>
       <c r="F3" t="n">
-        <v>268.7325794064781</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="G3" t="n">
-        <v>130.6673730215724</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369981</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369981</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="K3" t="n">
         <v>278.0105538592118</v>
       </c>
       <c r="L3" t="n">
-        <v>649.6216244022447</v>
+        <v>649.6216244022446</v>
       </c>
       <c r="M3" t="n">
-        <v>1135.253437604434</v>
+        <v>1135.253437604433</v>
       </c>
       <c r="N3" t="n">
         <v>1649.445493246982</v>
@@ -4427,34 +4427,34 @@
         <v>2053.415090336854</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695911</v>
+        <v>2360.633238912862</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.45131068499</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885992</v>
+        <v>2338.422352421415</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926783</v>
+        <v>2177.368589462206</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087514</v>
+        <v>1977.864906622937</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549724</v>
+        <v>1749.685079085147</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317982</v>
+        <v>1514.532970853405</v>
       </c>
       <c r="W3" t="n">
-        <v>1481.719167317982</v>
+        <v>1260.295614125203</v>
       </c>
       <c r="X3" t="n">
-        <v>1273.867667112449</v>
+        <v>1052.44411391967</v>
       </c>
       <c r="Y3" t="n">
-        <v>1066.107368347495</v>
+        <v>844.6838151547165</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.420921396565</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="C4" t="n">
-        <v>170.420921396565</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="D4" t="n">
-        <v>170.420921396565</v>
+        <v>464.7224358422835</v>
       </c>
       <c r="E4" t="n">
-        <v>170.420921396565</v>
+        <v>316.8093422598904</v>
       </c>
       <c r="F4" t="n">
-        <v>170.420921396565</v>
+        <v>169.91939476198</v>
       </c>
       <c r="G4" t="n">
-        <v>170.420921396565</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369981</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369981</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369981</v>
+        <v>47.30902621369979</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181607</v>
+        <v>88.805294101816</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365664</v>
+        <v>197.4326649365663</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950601</v>
+        <v>322.3541198950599</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896746</v>
+        <v>449.7398382896744</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885935</v>
+        <v>551.3848716885932</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546197</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546197</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546197</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="S4" t="n">
-        <v>398.2846702579444</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="T4" t="n">
-        <v>170.420921396565</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="U4" t="n">
-        <v>170.420921396565</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="V4" t="n">
-        <v>170.420921396565</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="W4" t="n">
-        <v>170.420921396565</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="X4" t="n">
-        <v>170.420921396565</v>
+        <v>614.8390752546193</v>
       </c>
       <c r="Y4" t="n">
-        <v>170.420921396565</v>
+        <v>614.8390752546193</v>
       </c>
     </row>
     <row r="5">
@@ -4546,13 +4546,13 @@
         <v>1993.54646147304</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>880.5299933276333</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4564,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,10 +4591,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
         <v>2247.308246834948</v>
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4658,37 +4658,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600561</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>698.7120650600561</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>551.8221175621458</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>382.8223173004782</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822952</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.241224882541</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>961.9755262757901</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>576.1872736775458</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>165.2013688879383</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4849,7 +4849,7 @@
         <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5044,16 +5044,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.86673817257</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844495</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5068,19 +5068,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>481.6968904858347</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="C13" t="n">
-        <v>481.6968904858347</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D13" t="n">
-        <v>481.6968904858347</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E13" t="n">
-        <v>333.7837969034416</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>186.8938494055313</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>186.8938494055313</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>928.0672628648952</v>
       </c>
       <c r="Y13" t="n">
-        <v>481.6968904858347</v>
+        <v>868.3463665534156</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5293,7 +5293,7 @@
         <v>3051.398683947134</v>
       </c>
       <c r="O14" t="n">
-        <v>3931.363334276589</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5381,16 +5381,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.3002584566048</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="C16" t="n">
-        <v>390.3640755286979</v>
+        <v>414.6161344886295</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>264.4994950762938</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>264.4994950762938</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>117.6095475783834</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1505.842960673222</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1251.158472467335</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>961.7413024303746</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X16" t="n">
-        <v>961.7413024303746</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y16" t="n">
-        <v>740.9487232868445</v>
+        <v>583.5523174165364</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,25 +5594,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.2179684131233</v>
+        <v>439.1815555980836</v>
       </c>
       <c r="C19" t="n">
-        <v>210.2179684131233</v>
+        <v>270.2453726701767</v>
       </c>
       <c r="D19" t="n">
-        <v>210.2179684131233</v>
+        <v>270.2453726701767</v>
       </c>
       <c r="E19" t="n">
-        <v>210.2179684131233</v>
+        <v>270.2453726701767</v>
       </c>
       <c r="F19" t="n">
-        <v>210.2179684131233</v>
+        <v>270.2453726701767</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="Y19" t="n">
-        <v>391.866433243363</v>
+        <v>620.8300204283233</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5752,19 +5752,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5779,19 +5779,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,28 +5831,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>709.4168978689405</v>
+        <v>707.2746837213646</v>
       </c>
       <c r="C22" t="n">
-        <v>540.4807149410336</v>
+        <v>538.3385007934577</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>388.2218613811219</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>240.3087677987288</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>240.3087677987288</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057174</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1220.870226851287</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W22" t="n">
-        <v>1220.870226851287</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X22" t="n">
-        <v>1111.85794184271</v>
+        <v>928.0672628648947</v>
       </c>
       <c r="Y22" t="n">
-        <v>891.0653626991802</v>
+        <v>707.2746837213646</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,25 +6068,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.4103109586945</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570255</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>814.8513549324643</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>594.0587757889342</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6217,34 +6217,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,22 +6305,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902953</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.2453974100822</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>138.3092144821753</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>138.3092144821753</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>138.3092144821753</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>138.3092144821753</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X28" t="n">
-        <v>709.6864413838521</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y28" t="n">
-        <v>488.8938622403219</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.4972173763014</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1507.339758221763</v>
+        <v>1535.121801369965</v>
       </c>
       <c r="U31" t="n">
-        <v>1218.236891347406</v>
+        <v>1535.121801369965</v>
       </c>
       <c r="V31" t="n">
-        <v>963.5524031415191</v>
+        <v>1280.437313164078</v>
       </c>
       <c r="W31" t="n">
-        <v>674.1352331045584</v>
+        <v>991.0201431271173</v>
       </c>
       <c r="X31" t="n">
-        <v>446.1456822065411</v>
+        <v>763.0305922291</v>
       </c>
       <c r="Y31" t="n">
-        <v>446.1456822065411</v>
+        <v>542.2380130855698</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,16 +6703,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M32" t="n">
-        <v>2368.748013620957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>2915.526830679739</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,25 +6779,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>973.7726509601081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1764.65758193153</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1604.203245831895</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1604.203245831895</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1376.213694933878</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1155.421115790348</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2584.171204687568</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N35" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,25 +7016,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>540.4807149410336</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="C37" t="n">
-        <v>540.4807149410336</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.012968055669</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>1460.328479849782</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>1170.911309812821</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X37" t="n">
-        <v>942.9217589148035</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y37" t="n">
-        <v>722.1291797712734</v>
+        <v>673.3827746590077</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,22 +7253,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902953</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1674.827124689058</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.767516148151</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1653.767516148151</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>1425.777965250134</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1204.985386106604</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7438,10 +7438,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,22 +7490,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1883.634847820971</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1594.531980946615</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
@@ -7651,16 +7651,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.86673817257</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844495</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7727,22 +7727,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>300.048425655595</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C46" t="n">
-        <v>300.048425655595</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D46" t="n">
-        <v>300.048425655595</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7809,7 +7809,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1841.286913615356</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1841.286913615356</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1552.184046741</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1297.499558535113</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>1008.082388498152</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>780.0928376001349</v>
       </c>
       <c r="Y46" t="n">
-        <v>481.6968904858347</v>
+        <v>559.3002584566048</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262986</v>
+        <v>64.58008902262989</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>169.1179653904912</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>60.73248448640258</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="P14" t="n">
-        <v>146.0713065388583</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>285.0508825989998</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,16 +10354,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>132.9990175570131</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>64.28566532692525</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>80.35488666587514</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11302,16 +11302,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>132.9990175570123</v>
+        <v>64.28566532692577</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>54.33552810675532</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23466,7 +23466,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>159.46096600373</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>144.1977802603391</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>249.5343124360574</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>52.51544363394669</v>
+        <v>89.44073382930188</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>22.72555224219718</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>117.7874932305464</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>182.1679443159947</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>140.0538944707216</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>123.7051100255852</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>83.32522828944232</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>53.73645647354667</v>
+        <v>81.24067919026766</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>93.28785058518943</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>129.1262418158236</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>266.8435944132373</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>231.2886308683298</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>105.0742887270136</v>
+        <v>147.5674171752745</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>110.0172536104688</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>75.86303836698856</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>884965.8829081316</v>
+        <v>884965.8829081317</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>884965.8829081315</v>
+        <v>884965.8829081317</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>884965.8829081316</v>
+        <v>884965.8829081315</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>884965.8829081316</v>
+        <v>884965.8829081317</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>884965.8829081316</v>
+        <v>884965.8829081317</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>884965.8829081315</v>
+        <v>884965.8829081316</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>884965.8829081317</v>
+        <v>884965.8829081316</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>884965.8829081316</v>
+        <v>884965.8829081317</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>884965.8829081316</v>
+        <v>884965.8829081315</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583911</v>
@@ -26322,40 +26322,40 @@
         <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="F2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="G2" t="n">
+        <v>536060.4122974274</v>
+      </c>
+      <c r="H2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="I2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="J2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="K2" t="n">
+        <v>536060.4122974274</v>
+      </c>
+      <c r="L2" t="n">
         <v>536060.4122974277</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
         <v>536060.4122974275</v>
       </c>
-      <c r="G2" t="n">
-        <v>536060.4122974277</v>
-      </c>
-      <c r="H2" t="n">
-        <v>536060.4122974278</v>
-      </c>
-      <c r="I2" t="n">
-        <v>536060.4122974272</v>
-      </c>
-      <c r="J2" t="n">
-        <v>536060.4122974278</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>536060.4122974274</v>
+      </c>
+      <c r="O2" t="n">
         <v>536060.4122974275</v>
       </c>
-      <c r="L2" t="n">
-        <v>536060.4122974274</v>
-      </c>
-      <c r="M2" t="n">
-        <v>536060.4122974273</v>
-      </c>
-      <c r="N2" t="n">
-        <v>536060.4122974273</v>
-      </c>
-      <c r="O2" t="n">
-        <v>536060.4122974274</v>
-      </c>
       <c r="P2" t="n">
-        <v>536060.4122974278</v>
+        <v>536060.4122974275</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.684410648</v>
+        <v>493391.6844106477</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.6395744691</v>
+        <v>91792.6395744695</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220081</v>
+        <v>21342.09858220087</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861104</v>
+        <v>244465.9635861106</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
@@ -26432,34 +26432,34 @@
         <v>32032.9550307977</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079773</v>
       </c>
       <c r="I4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="J4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079771</v>
       </c>
       <c r="K4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="M4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079773</v>
       </c>
       <c r="N4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="O4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="P4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.9550307977</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140123</v>
+        <v>76261.1061314012</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26484,34 +26484,34 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-259915.5594697683</v>
+        <v>-259915.559469768</v>
       </c>
       <c r="C6" t="n">
-        <v>160771.1520221775</v>
+        <v>160771.152022177</v>
       </c>
       <c r="D6" t="n">
         <v>252563.7915966466</v>
       </c>
       <c r="E6" t="n">
-        <v>-320405.4298827483</v>
+        <v>-319800.6704707161</v>
       </c>
       <c r="F6" t="n">
-        <v>406971.9841106582</v>
+        <v>407576.7435226906</v>
       </c>
       <c r="G6" t="n">
-        <v>406971.9841106583</v>
+        <v>407576.7435226903</v>
       </c>
       <c r="H6" t="n">
-        <v>406971.9841106585</v>
+        <v>407576.7435226901</v>
       </c>
       <c r="I6" t="n">
-        <v>406971.9841106579</v>
+        <v>407576.7435226901</v>
       </c>
       <c r="J6" t="n">
-        <v>252245.4484274425</v>
+        <v>252850.2078394743</v>
       </c>
       <c r="K6" t="n">
-        <v>385629.8855284574</v>
+        <v>386234.6449404894</v>
       </c>
       <c r="L6" t="n">
-        <v>406971.9841106581</v>
+        <v>407576.7435226905</v>
       </c>
       <c r="M6" t="n">
-        <v>277329.6692717132</v>
+        <v>277934.4286837456</v>
       </c>
       <c r="N6" t="n">
-        <v>406971.984110658</v>
+        <v>407576.7435226903</v>
       </c>
       <c r="O6" t="n">
-        <v>406971.9841106581</v>
+        <v>407576.7435226904</v>
       </c>
       <c r="P6" t="n">
-        <v>406971.9841106585</v>
+        <v>407576.7435226904</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435497</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712476</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435497</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353691</v>
+        <v>71.38374637353726</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712476</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="C4" t="n">
-        <v>82.924445083308</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712476</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="K4" t="n">
-        <v>82.924445083308</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712476</v>
+        <v>591.3628276712474</v>
       </c>
       <c r="K4" t="n">
-        <v>82.924445083308</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>229.3422870526936</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>62.51978222001935</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>90.05514493525577</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356731</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>32.48566550006991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>46.05426218479589</v>
       </c>
       <c r="H4" t="n">
-        <v>35.43459300343598</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848777</v>
+        <v>54.3008017384878</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731838</v>
+        <v>39.90169565731842</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
         <v>286.28889559408</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>154.2703906151712</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>154.2703906151716</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.74592769735781</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>303.6383668238969</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>303.638366823897</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672561</v>
+        <v>1.23159765967256</v>
       </c>
       <c r="H2" t="n">
         <v>12.61309953212161</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452644</v>
+        <v>47.4811687745264</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676341</v>
+        <v>104.530311867634</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015736</v>
+        <v>156.6638408015735</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787778</v>
+        <v>194.3553476787776</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589797</v>
+        <v>216.2577725589795</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095243</v>
+        <v>219.7570494095242</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811553</v>
+        <v>207.5103501811552</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579889</v>
+        <v>177.1052829579888</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709653</v>
+        <v>132.9986917709652</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940656</v>
+        <v>77.3643464894065</v>
       </c>
       <c r="S2" t="n">
-        <v>28.0650316697885</v>
+        <v>28.06503166978848</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216637</v>
+        <v>5.391318755216632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380483</v>
+        <v>0.09852781277380475</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540503</v>
+        <v>0.6589628421540498</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014118</v>
+        <v>6.364193765014114</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784779</v>
+        <v>22.68797504784777</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403684</v>
+        <v>62.25753764403679</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683582</v>
+        <v>106.4080480683581</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966503</v>
+        <v>143.0787521966502</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247346</v>
+        <v>166.9661552247344</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302326</v>
+        <v>171.3852525302325</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382928</v>
+        <v>156.7840232382927</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723818</v>
+        <v>125.8330009723817</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338368</v>
+        <v>84.11602876338362</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163482</v>
+        <v>40.91349997163479</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422106</v>
+        <v>12.23994577422105</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945491</v>
+        <v>2.656082683945489</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276648</v>
+        <v>0.04335281856276645</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654174</v>
+        <v>0.552452310865417</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967078</v>
+        <v>4.911803272967075</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584365</v>
+        <v>16.61374767584364</v>
       </c>
       <c r="J4" t="n">
-        <v>39.058378378185</v>
+        <v>39.05837837818498</v>
       </c>
       <c r="K4" t="n">
-        <v>64.1849139350912</v>
+        <v>64.18491393509116</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448217</v>
+        <v>82.13459174448209</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502173</v>
+        <v>86.59941087502168</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361435</v>
+        <v>84.54027044361428</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395921</v>
+        <v>78.08662299395915</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230464</v>
+        <v>66.81659585230459</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.260347594376</v>
+        <v>46.26034759437596</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400322</v>
+        <v>24.8402648140032</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263679</v>
+        <v>9.627737090263672</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515874</v>
+        <v>2.360478055515872</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084098</v>
+        <v>0.03013376241084096</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302157</v>
+        <v>92.58102251302149</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277578</v>
+        <v>260.7194023277577</v>
       </c>
       <c r="L2" t="n">
-        <v>376.250147259241</v>
+        <v>376.2501472592409</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245394</v>
+        <v>435.4250728245393</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249176</v>
+        <v>427.6909102249174</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222139</v>
+        <v>358.2123200222138</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742021</v>
+        <v>267.6709953742019</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564205</v>
+        <v>123.0079925564204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065778</v>
+        <v>233.0318461065777</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202353</v>
+        <v>375.3647177202351</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527162</v>
+        <v>490.537185052716</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904528</v>
+        <v>519.3859147904527</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705779</v>
+        <v>408.0500980705778</v>
       </c>
       <c r="P3" t="n">
-        <v>160.9765589485427</v>
+        <v>310.3213621979886</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132112</v>
+        <v>4.866739163764688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920835</v>
+        <v>41.91542210920831</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047983</v>
+        <v>109.7246170047982</v>
       </c>
       <c r="M4" t="n">
         <v>126.1832878368623</v>
@@ -34871,10 +34871,10 @@
         <v>128.6724428228429</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079989</v>
+        <v>102.6717509079988</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719813</v>
+        <v>64.09515511719808</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,10 +35412,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35661,10 +35661,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1257805183404</v>
       </c>
       <c r="P14" t="n">
-        <v>544.8332927582302</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>793.1038834872188</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>674.9245771183487</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493451</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>572.3386662151444</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>619.2760024961019</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>588.5891319493445</v>
+        <v>519.8757797192577</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
